--- a/data/surveys.xlsx
+++ b/data/surveys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apryet/recherche/particle_tracking/case_study/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apryet/recherche/ptrack/case_study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8FCD9F-BD20-564C-A4E8-D278F217028E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FCD5CA-5E12-6C42-A1D3-9E9B5A980320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="2180" windowWidth="21960" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="500" windowWidth="21960" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Q_R20</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>H_RCK2</t>
+  </si>
+  <si>
+    <t>h_ref</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +283,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -399,6 +408,9 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF12"/>
+  <dimension ref="A1:BF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -947,7 +959,7 @@
         <v>41913</v>
       </c>
       <c r="C3" s="2">
-        <v>9.1199999999999992</v>
+        <v>10.35</v>
       </c>
       <c r="D3" s="2">
         <v>9.6</v>
@@ -1061,9 +1073,7 @@
       <c r="AU3" s="2">
         <v>8.3103017857142838</v>
       </c>
-      <c r="AV3" s="2">
-        <v>4.3716468253968266</v>
-      </c>
+      <c r="AV3" s="27"/>
       <c r="AW3" s="2">
         <v>9.7050535714285733</v>
       </c>
@@ -1095,7 +1105,7 @@
         <v>42095</v>
       </c>
       <c r="C4" s="23">
-        <v>9.27</v>
+        <v>10.5</v>
       </c>
       <c r="D4" s="23">
         <v>9.6</v>
@@ -1221,9 +1231,7 @@
         <v>10.141202380952381</v>
       </c>
       <c r="AU4" s="23"/>
-      <c r="AV4" s="23">
-        <v>4.4837946428571467</v>
-      </c>
+      <c r="AV4" s="28"/>
       <c r="AW4" s="23">
         <v>9.9792398809523792</v>
       </c>
@@ -1255,7 +1263,7 @@
         <v>42278</v>
       </c>
       <c r="C5" s="14">
-        <v>9.07</v>
+        <v>10.3</v>
       </c>
       <c r="D5" s="14">
         <v>9.6</v>
@@ -1385,9 +1393,7 @@
       <c r="AU5" s="14">
         <v>8.3675158630952389</v>
       </c>
-      <c r="AV5" s="14">
-        <v>4.5300049603174584</v>
-      </c>
+      <c r="AV5" s="29"/>
       <c r="AW5" s="14">
         <v>9.5694240773809529</v>
       </c>
@@ -1425,7 +1431,7 @@
         <v>42789</v>
       </c>
       <c r="C6" s="19">
-        <v>9.4700000000000006</v>
+        <v>10.7</v>
       </c>
       <c r="D6" s="19">
         <v>9.65</v>
@@ -1519,7 +1525,7 @@
         <v>42793</v>
       </c>
       <c r="C7" s="2">
-        <v>9.6999999999999993</v>
+        <v>10.93</v>
       </c>
       <c r="D7" s="2">
         <v>9.64</v>
@@ -1588,7 +1594,7 @@
         <v>42843</v>
       </c>
       <c r="C8" s="2">
-        <v>9.17</v>
+        <v>10.4</v>
       </c>
       <c r="D8" s="2">
         <v>9.65</v>
@@ -1684,7 +1690,7 @@
         <v>43122</v>
       </c>
       <c r="C9" s="2">
-        <v>10.220000000000001</v>
+        <v>11.45</v>
       </c>
       <c r="D9" s="2">
         <v>9.2100000000000009</v>
@@ -1784,7 +1790,7 @@
         <v>43130</v>
       </c>
       <c r="C10" s="2">
-        <v>9.67</v>
+        <v>10.9</v>
       </c>
       <c r="D10" s="2">
         <v>9.2100000000000009</v>
@@ -1884,7 +1890,7 @@
         <v>43138</v>
       </c>
       <c r="C11" s="2">
-        <v>9.57</v>
+        <v>10.8</v>
       </c>
       <c r="D11" s="2">
         <v>9.1999999999999993</v>
@@ -1982,7 +1988,7 @@
         <v>43208</v>
       </c>
       <c r="C12" s="2">
-        <v>9.5399999999999991</v>
+        <v>10.77</v>
       </c>
       <c r="D12" s="2">
         <v>9.6300000000000008</v>
@@ -2046,6 +2052,101 @@
       <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>10.35</v>
+      </c>
+      <c r="D17" s="2">
+        <f>C17-C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>10.5</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D26" si="0">C18-C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>10.3</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>10.7</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>10.93</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>10.4</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>11.45</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>10.9</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>10.8</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>10.77</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D12">

--- a/data/surveys.xlsx
+++ b/data/surveys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apryet/recherche/ptrack/case_study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FCD5CA-5E12-6C42-A1D3-9E9B5A980320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E988A3-29CB-DF4E-9574-ABBDB7C60723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="500" windowWidth="21960" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q_R20</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>H_RCK2</t>
-  </si>
-  <si>
-    <t>h_ref</t>
   </si>
 </sst>
 </file>
@@ -715,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2053,100 +2050,35 @@
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17">
-        <v>10.35</v>
-      </c>
-      <c r="D17" s="2">
-        <f>C17-C3</f>
-        <v>0</v>
-      </c>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="2"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18">
-        <v>10.5</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18:D26" si="0">C18-C4</f>
-        <v>0</v>
-      </c>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="2"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19">
-        <v>10.3</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="2"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <v>10.7</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>10.93</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>10.4</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23">
-        <v>11.45</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24">
-        <v>10.9</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25">
-        <v>10.8</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26">
-        <v>10.77</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D12">

--- a/data/surveys.xlsx
+++ b/data/surveys.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apryet/recherche/ptrack/case_study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E988A3-29CB-DF4E-9574-ABBDB7C60723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE35407-75FC-474B-BC2C-49FF65093CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="500" windowWidth="21960" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7640" yWindow="1020" windowWidth="26300" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$9:$M$9</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$C$9:$M$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -712,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D26"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -965,7 +969,7 @@
         <v>8.4</v>
       </c>
       <c r="F3" s="4">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>319</v>
@@ -1272,7 +1276,7 @@
         <v>207.791666666666</v>
       </c>
       <c r="G5" s="15">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H5" s="15">
         <v>342.125</v>

--- a/data/surveys.xlsx
+++ b/data/surveys.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apryet/recherche/ptrack/case_study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE35407-75FC-474B-BC2C-49FF65093CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF7A1EC-D288-DC40-BE15-6F849040CAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="1020" windowWidth="26300" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7640" yWindow="1020" windowWidth="11360" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$9:$M$9</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$C$9:$M$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -717,7 +713,7 @@
   <dimension ref="A1:BF26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2053,6 +2049,13 @@
       <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="D14" s="2"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>

--- a/data/surveys.xlsx
+++ b/data/surveys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apryet/recherche/ptrack/case_study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF7A1EC-D288-DC40-BE15-6F849040CAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177C962E-9928-A242-8DE7-F035F20861DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="1020" windowWidth="11360" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="500" windowWidth="20300" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Q_R20</t>
   </si>
@@ -69,42 +69,6 @@
     <t>H_GAL</t>
   </si>
   <si>
-    <t>H_GAL_Y</t>
-  </si>
-  <si>
-    <t>Q_GALERIE_Y</t>
-  </si>
-  <si>
-    <t>Q_R20_Y</t>
-  </si>
-  <si>
-    <t>Q_R21_Y</t>
-  </si>
-  <si>
-    <t>Q_BARBAC_Y</t>
-  </si>
-  <si>
-    <t>Q_BUSSAC_Y</t>
-  </si>
-  <si>
-    <t>Q_CANTINOLLE_Y</t>
-  </si>
-  <si>
-    <t>Q_DEMANES_Y</t>
-  </si>
-  <si>
-    <t>Q_GAJAC4_Y</t>
-  </si>
-  <si>
-    <t>Q_PRG_Y</t>
-  </si>
-  <si>
-    <t>Q_RUET_Y</t>
-  </si>
-  <si>
-    <t>Q_SMIM2_Y</t>
-  </si>
-  <si>
     <t>Q_GAJAC4</t>
   </si>
   <si>
@@ -202,6 +166,12 @@
   </si>
   <si>
     <t>H_RCK2</t>
+  </si>
+  <si>
+    <t>GLOB_MR</t>
+  </si>
+  <si>
+    <t>GLOB_Q</t>
   </si>
 </sst>
 </file>
@@ -710,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF26"/>
+  <dimension ref="A1:AV26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -728,31 +698,25 @@
     <col min="9" max="9" width="11.83203125" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
-    <col min="15" max="16" width="11" customWidth="1"/>
-    <col min="17" max="18" width="14.5" customWidth="1"/>
-    <col min="19" max="20" width="12.6640625" customWidth="1"/>
-    <col min="21" max="22" width="11.1640625" customWidth="1"/>
-    <col min="23" max="24" width="8.1640625" customWidth="1"/>
-    <col min="25" max="26" width="8.83203125" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="44" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.33203125" customWidth="1"/>
-    <col min="56" max="56" width="9.1640625" customWidth="1"/>
-    <col min="57" max="57" width="8.83203125" customWidth="1"/>
+    <col min="12" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" customWidth="1"/>
+    <col min="20" max="20" width="8.1640625" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="23" max="38" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -790,165 +754,168 @@
         <v>6</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AP1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AR1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AS1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AT1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AU1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AP1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5">
         <v>367</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="C2" s="2">
+        <f>AVERAGE(C3:C12)</f>
+        <v>10.709999999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <f>AVERAGE(D3:D12)</f>
+        <v>9.4989999999999988</v>
+      </c>
+      <c r="E2" s="2">
+        <f>AVERAGE(E3:E12)</f>
+        <v>8.6740000000000013</v>
+      </c>
+      <c r="F2" s="2">
+        <f>AVERAGE(F3:F12)</f>
+        <v>194.17083333333301</v>
+      </c>
+      <c r="G2" s="2">
+        <f>AVERAGE(G3:G12)</f>
+        <v>205.33244382022446</v>
+      </c>
+      <c r="P2" s="2">
+        <f>AVERAGE(P3:P12)</f>
+        <v>36.67083333333332</v>
+      </c>
+      <c r="Q2" s="2">
+        <f t="shared" ref="Q2:V2" si="0">AVERAGE(Q3:Q12)</f>
+        <v>25.171863611483211</v>
+      </c>
+      <c r="R2" s="2">
+        <f t="shared" si="0"/>
+        <v>61.260441197848294</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" si="0"/>
+        <v>15.625327730291241</v>
+      </c>
+      <c r="T2" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <f t="shared" si="0"/>
+        <v>42.749612289565974</v>
+      </c>
+      <c r="V2" s="2">
+        <f t="shared" si="0"/>
+        <v>29.39966520580079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -984,117 +951,83 @@
       <c r="M3" s="2">
         <v>27</v>
       </c>
-      <c r="N3" s="4">
-        <v>383.75458005714279</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="2">
-        <v>18.69104339000171</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <v>0</v>
+        <v>134.083333333333</v>
       </c>
       <c r="S3" s="2">
-        <v>134.083333333333</v>
+        <v>17.3333333333333</v>
       </c>
       <c r="T3" s="2">
-        <v>133.07738095238091</v>
-      </c>
-      <c r="U3" s="2">
-        <v>17.3333333333333</v>
-      </c>
-      <c r="V3" s="2">
-        <v>17.678725345384269</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
         <v>47.125</v>
       </c>
-      <c r="Z3" s="3">
-        <v>47.301512171171566</v>
-      </c>
-      <c r="AA3" s="3">
+      <c r="V3" s="3">
         <v>38.003502626970203</v>
       </c>
-      <c r="AB3" s="3">
-        <v>38.429118944731883</v>
-      </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2">
+        <v>9.6525479050336607</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>9.7345191906120672</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>10.196226190476169</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>10.00611607142856</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>9.6121523809523808</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>9.8990526669384202</v>
+      </c>
       <c r="AE3" s="2">
-        <v>9.6525479050336607</v>
+        <v>10.26083242884317</v>
       </c>
       <c r="AF3" s="2">
-        <v>9.7345191906120672</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>10.196226190476169</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>10.00611607142856</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>9.6121523809523808</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>9.8990526669384202</v>
-      </c>
-      <c r="AK3" s="2">
-        <v>10.26083242884317</v>
-      </c>
-      <c r="AL3" s="2">
         <v>9.1273125000000022</v>
       </c>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2">
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2">
         <v>9.4753547619047627</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AN3" s="2">
         <v>10.005243452380959</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AO3" s="2">
         <v>8.3103017857142838</v>
       </c>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="2">
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="2">
         <v>9.7050535714285733</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="AR3" s="2">
         <v>9.3962125000000007</v>
       </c>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="4">
-        <v>8.3225500000000014</v>
-      </c>
-      <c r="BC3" s="4">
-        <v>268.27679946979191</v>
-      </c>
-      <c r="BD3" s="4">
-        <v>67.037086608368895</v>
-      </c>
-      <c r="BE3" s="2">
-        <v>313.98860328317062</v>
-      </c>
-      <c r="BF3" s="2"/>
-    </row>
-    <row r="4" spans="1:58" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+    </row>
+    <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1132,127 +1065,93 @@
       <c r="M4" s="23">
         <v>24</v>
       </c>
-      <c r="N4" s="24">
-        <v>349.85218411428571</v>
-      </c>
-      <c r="O4" s="23">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23">
         <v>67.0833333333333</v>
-      </c>
-      <c r="P4" s="23">
-        <v>67.125</v>
       </c>
       <c r="Q4" s="23">
         <v>61.9583333333333</v>
       </c>
       <c r="R4" s="23">
-        <v>62.047619047619037</v>
+        <v>0</v>
       </c>
       <c r="S4" s="23">
         <v>0</v>
       </c>
       <c r="T4" s="23">
-        <v>19.792498004788509</v>
-      </c>
-      <c r="U4" s="23">
-        <v>0</v>
-      </c>
-      <c r="V4" s="23">
-        <v>0</v>
-      </c>
-      <c r="W4" s="23">
-        <v>0</v>
-      </c>
-      <c r="X4" s="23">
-        <v>22.058823529411761</v>
-      </c>
-      <c r="Y4" s="25">
+        <v>0</v>
+      </c>
+      <c r="U4" s="25">
         <v>42.6666666666666</v>
       </c>
-      <c r="Z4" s="25">
-        <v>42.921365914786968</v>
-      </c>
-      <c r="AA4" s="25">
+      <c r="V4" s="25">
         <v>36.525612472160297</v>
       </c>
-      <c r="AB4" s="25">
-        <v>36.35374503168952</v>
-      </c>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23">
+        <v>9.6360678571428569</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>9.8018660714285719</v>
+      </c>
+      <c r="AA4" s="23">
+        <v>10.5855869047619</v>
+      </c>
+      <c r="AB4" s="23">
+        <v>10.33018214285714</v>
+      </c>
+      <c r="AC4" s="23">
+        <v>9.6485982142857143</v>
+      </c>
+      <c r="AD4" s="23">
+        <v>9.9715982142857165</v>
+      </c>
       <c r="AE4" s="23">
-        <v>9.6360678571428569</v>
+        <v>10.92704702380953</v>
       </c>
       <c r="AF4" s="23">
-        <v>9.8018660714285719</v>
+        <v>9.093102380952379</v>
       </c>
       <c r="AG4" s="23">
-        <v>10.5855869047619</v>
+        <v>8.6855297619047622</v>
       </c>
       <c r="AH4" s="23">
-        <v>10.33018214285714</v>
+        <v>8.9416458333333324</v>
       </c>
       <c r="AI4" s="23">
-        <v>9.6485982142857143</v>
+        <v>9.2385910714285728</v>
       </c>
       <c r="AJ4" s="23">
-        <v>9.9715982142857165</v>
+        <v>9.1267017857142854</v>
       </c>
       <c r="AK4" s="23">
-        <v>10.92704702380953</v>
+        <v>9.5699690476190504</v>
       </c>
       <c r="AL4" s="23">
-        <v>9.093102380952379</v>
+        <v>9.637910714285713</v>
       </c>
       <c r="AM4" s="23">
-        <v>8.6855297619047622</v>
+        <v>9.2019785714285707</v>
       </c>
       <c r="AN4" s="23">
-        <v>8.9416458333333324</v>
-      </c>
-      <c r="AO4" s="23">
-        <v>9.2385910714285728</v>
-      </c>
-      <c r="AP4" s="23">
-        <v>9.1267017857142854</v>
-      </c>
+        <v>10.141202380952381</v>
+      </c>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="28"/>
       <c r="AQ4" s="23">
-        <v>9.5699690476190504</v>
+        <v>9.9792398809523792</v>
       </c>
       <c r="AR4" s="23">
-        <v>9.637910714285713</v>
-      </c>
-      <c r="AS4" s="23">
-        <v>9.2019785714285707</v>
-      </c>
-      <c r="AT4" s="23">
-        <v>10.141202380952381</v>
-      </c>
+        <v>8.6275785714285718</v>
+      </c>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23"/>
       <c r="AU4" s="23"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="23">
-        <v>9.9792398809523792</v>
-      </c>
-      <c r="AX4" s="23">
-        <v>8.6275785714285718</v>
-      </c>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="24">
-        <v>8.2774916666666662</v>
-      </c>
-      <c r="BC4" s="24">
-        <v>321.1463551515414</v>
-      </c>
-      <c r="BD4" s="23">
-        <v>225.68353015873009</v>
-      </c>
-      <c r="BE4" s="23">
-        <v>318.43940913047931</v>
-      </c>
-      <c r="BF4" s="23"/>
-    </row>
-    <row r="5" spans="1:58" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV4" s="23"/>
+    </row>
+    <row r="5" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -1288,139 +1187,105 @@
       <c r="M5" s="14">
         <v>31</v>
       </c>
-      <c r="N5" s="15">
-        <v>110.92560975714289</v>
-      </c>
-      <c r="O5" s="14">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14">
         <v>61.2083333333333</v>
-      </c>
-      <c r="P5" s="14">
-        <v>62.19047619047619</v>
       </c>
       <c r="Q5" s="14">
         <v>40.2916666666666</v>
       </c>
       <c r="R5" s="14">
-        <v>40.422619047619037</v>
+        <v>128.916666666666</v>
       </c>
       <c r="S5" s="14">
-        <v>128.916666666666</v>
+        <v>17.75</v>
       </c>
       <c r="T5" s="14">
-        <v>128.94864226682409</v>
-      </c>
-      <c r="U5" s="14">
-        <v>17.75</v>
-      </c>
-      <c r="V5" s="14">
-        <v>17.780349794238681</v>
+        <v>0</v>
+      </c>
+      <c r="U5" s="16">
+        <v>35.625</v>
+      </c>
+      <c r="V5" s="16">
+        <v>32.8333333333333</v>
       </c>
       <c r="W5" s="14">
-        <v>0</v>
+        <v>9.3598885238095253</v>
       </c>
       <c r="X5" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="16">
-        <v>35.625</v>
-      </c>
-      <c r="Z5" s="16">
-        <v>35.478042198206388</v>
-      </c>
-      <c r="AA5" s="16">
-        <v>32.8333333333333</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>33.102902054584568</v>
+        <v>9.9018292023809522</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>9.608518982142856</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>9.683357035714284</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>10.058672625</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>9.7340520297619015</v>
       </c>
       <c r="AC5" s="14">
-        <v>9.3598885238095253</v>
+        <v>9.5986493869047642</v>
       </c>
       <c r="AD5" s="14">
-        <v>9.9018292023809522</v>
+        <v>9.8011417083333345</v>
       </c>
       <c r="AE5" s="14">
-        <v>9.608518982142856</v>
+        <v>9.8862252261904757</v>
       </c>
       <c r="AF5" s="14">
-        <v>9.683357035714284</v>
+        <v>8.874929767857143</v>
       </c>
       <c r="AG5" s="14">
-        <v>10.058672625</v>
+        <v>8.6629561904761889</v>
       </c>
       <c r="AH5" s="14">
-        <v>9.7340520297619015</v>
+        <v>8.8768794761904779</v>
       </c>
       <c r="AI5" s="14">
-        <v>9.5986493869047642</v>
+        <v>8.9760425773809516</v>
       </c>
       <c r="AJ5" s="14">
-        <v>9.8011417083333345</v>
+        <v>8.9377821309523817</v>
       </c>
       <c r="AK5" s="14">
-        <v>9.8862252261904757</v>
+        <v>9.4961094107142863</v>
       </c>
       <c r="AL5" s="14">
-        <v>8.874929767857143</v>
+        <v>9.5524466964285732</v>
       </c>
       <c r="AM5" s="14">
-        <v>8.6629561904761889</v>
+        <v>9.0938652678571437</v>
       </c>
       <c r="AN5" s="14">
-        <v>8.8768794761904779</v>
+        <v>10.00374742857144</v>
       </c>
       <c r="AO5" s="14">
-        <v>8.9760425773809516</v>
-      </c>
-      <c r="AP5" s="14">
-        <v>8.9377821309523817</v>
-      </c>
+        <v>8.3675158630952389</v>
+      </c>
+      <c r="AP5" s="29"/>
       <c r="AQ5" s="14">
-        <v>9.4961094107142863</v>
+        <v>9.5694240773809529</v>
       </c>
       <c r="AR5" s="14">
-        <v>9.5524466964285732</v>
+        <v>8.3923471726190488</v>
       </c>
       <c r="AS5" s="14">
-        <v>9.0938652678571437</v>
+        <v>9.2914157619047621</v>
       </c>
       <c r="AT5" s="14">
-        <v>10.00374742857144</v>
+        <v>8.3879609821428591</v>
       </c>
       <c r="AU5" s="14">
-        <v>8.3675158630952389</v>
-      </c>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="14">
-        <v>9.5694240773809529</v>
-      </c>
-      <c r="AX5" s="14">
-        <v>8.3923471726190488</v>
-      </c>
-      <c r="AY5" s="14">
-        <v>9.2914157619047621</v>
-      </c>
-      <c r="AZ5" s="14">
-        <v>8.3879609821428591</v>
-      </c>
-      <c r="BA5" s="14">
         <v>8.41241548809524</v>
       </c>
-      <c r="BB5" s="15">
-        <v>8.5056113988095241</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>179.02003290453229</v>
-      </c>
-      <c r="BD5" s="14">
-        <v>224.71724740365099</v>
-      </c>
-      <c r="BE5" s="15">
-        <v>205.63872308699999</v>
-      </c>
-      <c r="BF5" s="14"/>
-    </row>
-    <row r="6" spans="1:58" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV5" s="14"/>
+    </row>
+    <row r="6" spans="1:48" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -1455,33 +1320,33 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="19">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19">
         <v>58.4583333333333</v>
       </c>
-      <c r="P6" s="19"/>
       <c r="Q6" s="19">
         <v>60.273972602739697</v>
       </c>
-      <c r="R6" s="19"/>
+      <c r="R6" s="19">
+        <v>121.416666666666</v>
+      </c>
       <c r="S6" s="19">
-        <v>121.416666666666</v>
-      </c>
-      <c r="T6" s="19"/>
+        <v>17.7083333333333</v>
+      </c>
+      <c r="T6" s="19">
+        <v>0</v>
+      </c>
       <c r="U6" s="19">
-        <v>17.7083333333333</v>
-      </c>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19">
-        <v>0</v>
-      </c>
+        <v>35.854575846218097</v>
+      </c>
+      <c r="V6" s="19">
+        <v>27.3</v>
+      </c>
+      <c r="W6" s="19"/>
       <c r="X6" s="19"/>
-      <c r="Y6" s="19">
-        <v>35.854575846218097</v>
-      </c>
+      <c r="Y6" s="19"/>
       <c r="Z6" s="19"/>
-      <c r="AA6" s="19">
-        <v>27.3</v>
-      </c>
+      <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
@@ -1503,18 +1368,8 @@
       <c r="AT6" s="19"/>
       <c r="AU6" s="19"/>
       <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="19"/>
-      <c r="BE6" s="19"/>
-      <c r="BF6" s="19"/>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1549,41 +1404,31 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2">
         <v>57.25</v>
       </c>
-      <c r="P7" s="2"/>
       <c r="Q7" s="2">
         <v>46.319663512092497</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2">
+        <v>116.5</v>
+      </c>
       <c r="S7" s="2">
-        <v>116.5</v>
-      </c>
-      <c r="T7" s="2"/>
+        <v>17.7083333333333</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
       <c r="U7" s="2">
-        <v>17.7083333333333</v>
-      </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2">
         <v>37.224880382775098</v>
       </c>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
+      <c r="V7" s="2">
         <v>27.1</v>
       </c>
-      <c r="AB7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AV7" s="2"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1620,33 +1465,33 @@
         <v>38</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="2">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2">
         <v>57.7083333333333</v>
       </c>
-      <c r="P8" s="2"/>
       <c r="Q8" s="2">
         <v>42.875</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2">
+        <v>111.68774531181801</v>
+      </c>
       <c r="S8" s="2">
-        <v>111.68774531181801</v>
-      </c>
-      <c r="T8" s="2"/>
+        <v>17.559009786989002</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
       <c r="U8" s="2">
-        <v>17.559009786989002</v>
-      </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
+        <v>31.625</v>
+      </c>
+      <c r="V8" s="2">
+        <v>26.8175582990397</v>
+      </c>
+      <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>31.625</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>26.8175582990397</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -1668,18 +1513,8 @@
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
-      <c r="BF8" s="2"/>
-    </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1720,33 +1555,33 @@
         <v>77</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
       <c r="Q9" s="2">
         <v>0</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
       <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2"/>
+        <v>17.027600849256899</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
       <c r="U9" s="2">
-        <v>17.027600849256899</v>
-      </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
+        <v>47.5</v>
+      </c>
+      <c r="V9" s="2">
+        <v>27.016645326504399</v>
+      </c>
+      <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>47.5</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2">
-        <v>27.016645326504399</v>
-      </c>
+      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -1768,18 +1603,8 @@
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-    </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1820,33 +1645,33 @@
         <v>13</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="2">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2">
         <v>65</v>
       </c>
-      <c r="P10" s="2"/>
       <c r="Q10" s="2">
         <v>0</v>
       </c>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
       <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
       <c r="U10" s="2">
-        <v>17</v>
-      </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
+        <v>49.9583333333333</v>
+      </c>
+      <c r="V10" s="2">
+        <v>26.2</v>
+      </c>
+      <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>49.9583333333333</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>26.2</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -1868,18 +1693,8 @@
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2"/>
-    </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1918,33 +1733,33 @@
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
       <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2"/>
+        <v>17.0833333333333</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
       <c r="U11" s="2">
-        <v>17.0833333333333</v>
-      </c>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
+        <v>49.9583333333333</v>
+      </c>
+      <c r="V11" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>49.9583333333333</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>26.1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -1966,18 +1781,8 @@
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="2"/>
-    </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2016,45 +1821,35 @@
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
       <c r="Q12" s="2">
         <v>0</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
       <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2"/>
+        <v>17.0833333333333</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
       <c r="U12" s="2">
-        <v>17.0833333333333</v>
-      </c>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2">
         <v>49.9583333333333</v>
       </c>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2">
+      <c r="V12" s="2">
         <v>26.1</v>
       </c>
-      <c r="AB12" s="2"/>
-      <c r="BB12" s="2"/>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="2"/>
-      <c r="BE12" s="2"/>
-      <c r="BF12" s="2"/>
-    </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AV12" s="2"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D14" s="2"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -2148,7 +1943,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:M12">
+  <conditionalFormatting sqref="J3:O12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/data/surveys.xlsx
+++ b/data/surveys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apryet/recherche/ptrack/case_study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177C962E-9928-A242-8DE7-F035F20861DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4F8300-102D-CE4D-B233-AD62B5140939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="500" windowWidth="20300" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5780" yWindow="500" windowWidth="20300" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Q_R20</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>GLOB_Q</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -682,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -860,632 +863,666 @@
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>99</v>
+      <c r="A2" s="21">
+        <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>367</v>
+        <v>41913</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C3:C12)</f>
-        <v>10.709999999999999</v>
+        <v>10.35</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D3:D12)</f>
-        <v>9.4989999999999988</v>
-      </c>
-      <c r="E2" s="2">
-        <f>AVERAGE(E3:E12)</f>
-        <v>8.6740000000000013</v>
-      </c>
-      <c r="F2" s="2">
-        <f>AVERAGE(F3:F12)</f>
-        <v>194.17083333333301</v>
+        <v>9.6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G3:G12)</f>
-        <v>205.33244382022446</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="H2" s="4">
+        <v>486.58333333333297</v>
+      </c>
+      <c r="I2" s="4">
+        <v>373</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
       <c r="P2" s="2">
-        <f>AVERAGE(P3:P12)</f>
-        <v>36.67083333333332</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <f t="shared" ref="Q2:V2" si="0">AVERAGE(Q3:Q12)</f>
-        <v>25.171863611483211</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2">
-        <f t="shared" si="0"/>
-        <v>61.260441197848294</v>
+        <v>134.083333333333</v>
       </c>
       <c r="S2" s="2">
-        <f t="shared" si="0"/>
-        <v>15.625327730291241</v>
+        <v>17.3333333333333</v>
       </c>
       <c r="T2" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <f t="shared" si="0"/>
-        <v>42.749612289565974</v>
-      </c>
-      <c r="V2" s="2">
-        <f t="shared" si="0"/>
-        <v>29.39966520580079</v>
-      </c>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>41913</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10.35</v>
-      </c>
-      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>47.125</v>
+      </c>
+      <c r="V2" s="3">
+        <v>38.003502626970203</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2">
+        <v>9.6525479050336607</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>9.7345191906120672</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>10.196226190476169</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>10.00611607142856</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>9.6121523809523808</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>9.8990526669384202</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>10.26083242884317</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>9.1273125000000022</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2">
+        <v>9.4753547619047627</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>10.005243452380959</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>8.3103017857142838</v>
+      </c>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="2">
+        <v>9.7050535714285733</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>9.3962125000000007</v>
+      </c>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+    </row>
+    <row r="3" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>42095</v>
+      </c>
+      <c r="C3" s="23">
+        <v>10.5</v>
+      </c>
+      <c r="D3" s="23">
         <v>9.6</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F3" s="23">
+        <v>226.083333333333</v>
+      </c>
+      <c r="G3" s="23">
+        <v>313.20833333333297</v>
+      </c>
+      <c r="H3" s="24">
+        <v>573</v>
+      </c>
+      <c r="I3" s="24">
+        <v>208</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23">
+        <v>64</v>
+      </c>
+      <c r="L3" s="23">
+        <v>7</v>
+      </c>
+      <c r="M3" s="23">
+        <v>24</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23">
+        <v>67.0833333333333</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>61.9583333333333</v>
+      </c>
+      <c r="R3" s="23">
+        <v>0</v>
+      </c>
+      <c r="S3" s="23">
+        <v>0</v>
+      </c>
+      <c r="T3" s="23">
+        <v>0</v>
+      </c>
+      <c r="U3" s="25">
+        <v>42.6666666666666</v>
+      </c>
+      <c r="V3" s="25">
+        <v>36.525612472160297</v>
+      </c>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23">
+        <v>9.6360678571428569</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>9.8018660714285719</v>
+      </c>
+      <c r="AA3" s="23">
+        <v>10.5855869047619</v>
+      </c>
+      <c r="AB3" s="23">
+        <v>10.33018214285714</v>
+      </c>
+      <c r="AC3" s="23">
+        <v>9.6485982142857143</v>
+      </c>
+      <c r="AD3" s="23">
+        <v>9.9715982142857165</v>
+      </c>
+      <c r="AE3" s="23">
+        <v>10.92704702380953</v>
+      </c>
+      <c r="AF3" s="23">
+        <v>9.093102380952379</v>
+      </c>
+      <c r="AG3" s="23">
+        <v>8.6855297619047622</v>
+      </c>
+      <c r="AH3" s="23">
+        <v>8.9416458333333324</v>
+      </c>
+      <c r="AI3" s="23">
+        <v>9.2385910714285728</v>
+      </c>
+      <c r="AJ3" s="23">
+        <v>9.1267017857142854</v>
+      </c>
+      <c r="AK3" s="23">
+        <v>9.5699690476190504</v>
+      </c>
+      <c r="AL3" s="23">
+        <v>9.637910714285713</v>
+      </c>
+      <c r="AM3" s="23">
+        <v>9.2019785714285707</v>
+      </c>
+      <c r="AN3" s="23">
+        <v>10.141202380952381</v>
+      </c>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="23">
+        <v>9.9792398809523792</v>
+      </c>
+      <c r="AR3" s="23">
+        <v>8.6275785714285718</v>
+      </c>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="23"/>
+    </row>
+    <row r="4" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>42278</v>
+      </c>
+      <c r="C4" s="14">
+        <v>10.3</v>
+      </c>
+      <c r="D4" s="14">
+        <v>9.6</v>
+      </c>
+      <c r="E4" s="15">
         <v>8.4</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>319</v>
-      </c>
-      <c r="H3" s="4">
-        <v>486.58333333333297</v>
-      </c>
-      <c r="I3" s="4">
-        <v>373</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>10</v>
-      </c>
-      <c r="M3" s="2">
-        <v>27</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>134.083333333333</v>
-      </c>
-      <c r="S3" s="2">
-        <v>17.3333333333333</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <v>47.125</v>
-      </c>
-      <c r="V3" s="3">
-        <v>38.003502626970203</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>9.6525479050336607</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>9.7345191906120672</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>10.196226190476169</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>10.00611607142856</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>9.6121523809523808</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>9.8990526669384202</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>10.26083242884317</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>9.1273125000000022</v>
-      </c>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2">
-        <v>9.4753547619047627</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>10.005243452380959</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>8.3103017857142838</v>
-      </c>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="2">
-        <v>9.7050535714285733</v>
-      </c>
-      <c r="AR3" s="2">
-        <v>9.3962125000000007</v>
-      </c>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-    </row>
-    <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <v>42095</v>
-      </c>
-      <c r="C4" s="23">
-        <v>10.5</v>
-      </c>
-      <c r="D4" s="23">
-        <v>9.6</v>
-      </c>
-      <c r="E4" s="24">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F4" s="23">
-        <v>226.083333333333</v>
-      </c>
-      <c r="G4" s="23">
-        <v>313.20833333333297</v>
-      </c>
-      <c r="H4" s="24">
-        <v>573</v>
-      </c>
-      <c r="I4" s="24">
-        <v>208</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23">
-        <v>64</v>
-      </c>
-      <c r="L4" s="23">
-        <v>7</v>
-      </c>
-      <c r="M4" s="23">
-        <v>24</v>
-      </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23">
-        <v>67.0833333333333</v>
-      </c>
-      <c r="Q4" s="23">
-        <v>61.9583333333333</v>
-      </c>
-      <c r="R4" s="23">
-        <v>0</v>
-      </c>
-      <c r="S4" s="23">
-        <v>0</v>
-      </c>
-      <c r="T4" s="23">
-        <v>0</v>
-      </c>
-      <c r="U4" s="25">
-        <v>42.6666666666666</v>
-      </c>
-      <c r="V4" s="25">
-        <v>36.525612472160297</v>
-      </c>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23">
-        <v>9.6360678571428569</v>
-      </c>
-      <c r="Z4" s="23">
-        <v>9.8018660714285719</v>
-      </c>
-      <c r="AA4" s="23">
-        <v>10.5855869047619</v>
-      </c>
-      <c r="AB4" s="23">
-        <v>10.33018214285714</v>
-      </c>
-      <c r="AC4" s="23">
-        <v>9.6485982142857143</v>
-      </c>
-      <c r="AD4" s="23">
-        <v>9.9715982142857165</v>
-      </c>
-      <c r="AE4" s="23">
-        <v>10.92704702380953</v>
-      </c>
-      <c r="AF4" s="23">
-        <v>9.093102380952379</v>
-      </c>
-      <c r="AG4" s="23">
-        <v>8.6855297619047622</v>
-      </c>
-      <c r="AH4" s="23">
-        <v>8.9416458333333324</v>
-      </c>
-      <c r="AI4" s="23">
-        <v>9.2385910714285728</v>
-      </c>
-      <c r="AJ4" s="23">
-        <v>9.1267017857142854</v>
-      </c>
-      <c r="AK4" s="23">
-        <v>9.5699690476190504</v>
-      </c>
-      <c r="AL4" s="23">
-        <v>9.637910714285713</v>
-      </c>
-      <c r="AM4" s="23">
-        <v>9.2019785714285707</v>
-      </c>
-      <c r="AN4" s="23">
-        <v>10.141202380952381</v>
-      </c>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="23">
-        <v>9.9792398809523792</v>
-      </c>
-      <c r="AR4" s="23">
-        <v>8.6275785714285718</v>
-      </c>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23"/>
-    </row>
-    <row r="5" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="14">
+        <v>207.791666666666</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>342.125</v>
+      </c>
+      <c r="I4" s="15">
+        <v>382</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14">
+        <v>11</v>
+      </c>
+      <c r="M4" s="14">
+        <v>31</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14">
+        <v>61.2083333333333</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>40.2916666666666</v>
+      </c>
+      <c r="R4" s="14">
+        <v>128.916666666666</v>
+      </c>
+      <c r="S4" s="14">
+        <v>17.75</v>
+      </c>
+      <c r="T4" s="14">
+        <v>0</v>
+      </c>
+      <c r="U4" s="16">
+        <v>35.625</v>
+      </c>
+      <c r="V4" s="16">
+        <v>32.8333333333333</v>
+      </c>
+      <c r="W4" s="14">
+        <v>9.3598885238095253</v>
+      </c>
+      <c r="X4" s="14">
+        <v>9.9018292023809522</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>9.608518982142856</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>9.683357035714284</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>10.058672625</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>9.7340520297619015</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>9.5986493869047642</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>9.8011417083333345</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>9.8862252261904757</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>8.874929767857143</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>8.6629561904761889</v>
+      </c>
+      <c r="AH4" s="14">
+        <v>8.8768794761904779</v>
+      </c>
+      <c r="AI4" s="14">
+        <v>8.9760425773809516</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>8.9377821309523817</v>
+      </c>
+      <c r="AK4" s="14">
+        <v>9.4961094107142863</v>
+      </c>
+      <c r="AL4" s="14">
+        <v>9.5524466964285732</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>9.0938652678571437</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>10.00374742857144</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>8.3675158630952389</v>
+      </c>
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="14">
+        <v>9.5694240773809529</v>
+      </c>
+      <c r="AR4" s="14">
+        <v>8.3923471726190488</v>
+      </c>
+      <c r="AS4" s="14">
+        <v>9.2914157619047621</v>
+      </c>
+      <c r="AT4" s="14">
+        <v>8.3879609821428591</v>
+      </c>
+      <c r="AU4" s="14">
+        <v>8.41241548809524</v>
+      </c>
+      <c r="AV4" s="14"/>
+    </row>
+    <row r="5" spans="1:48" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13">
-        <v>42278</v>
-      </c>
-      <c r="C5" s="14">
-        <v>10.3</v>
-      </c>
-      <c r="D5" s="14">
-        <v>9.6</v>
-      </c>
-      <c r="E5" s="15">
-        <v>8.4</v>
-      </c>
-      <c r="F5" s="14">
-        <v>207.791666666666</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>342.125</v>
-      </c>
-      <c r="I5" s="15">
-        <v>382</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14">
-        <v>11</v>
-      </c>
-      <c r="M5" s="14">
-        <v>31</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14">
-        <v>61.2083333333333</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>40.2916666666666</v>
-      </c>
-      <c r="R5" s="14">
-        <v>128.916666666666</v>
-      </c>
-      <c r="S5" s="14">
-        <v>17.75</v>
-      </c>
-      <c r="T5" s="14">
-        <v>0</v>
-      </c>
-      <c r="U5" s="16">
-        <v>35.625</v>
-      </c>
-      <c r="V5" s="16">
-        <v>32.8333333333333</v>
-      </c>
-      <c r="W5" s="14">
-        <v>9.3598885238095253</v>
-      </c>
-      <c r="X5" s="14">
-        <v>9.9018292023809522</v>
-      </c>
-      <c r="Y5" s="14">
-        <v>9.608518982142856</v>
-      </c>
-      <c r="Z5" s="14">
-        <v>9.683357035714284</v>
-      </c>
-      <c r="AA5" s="14">
-        <v>10.058672625</v>
-      </c>
-      <c r="AB5" s="14">
-        <v>9.7340520297619015</v>
-      </c>
-      <c r="AC5" s="14">
-        <v>9.5986493869047642</v>
-      </c>
-      <c r="AD5" s="14">
-        <v>9.8011417083333345</v>
-      </c>
-      <c r="AE5" s="14">
-        <v>9.8862252261904757</v>
-      </c>
-      <c r="AF5" s="14">
-        <v>8.874929767857143</v>
-      </c>
-      <c r="AG5" s="14">
-        <v>8.6629561904761889</v>
-      </c>
-      <c r="AH5" s="14">
-        <v>8.8768794761904779</v>
-      </c>
-      <c r="AI5" s="14">
-        <v>8.9760425773809516</v>
-      </c>
-      <c r="AJ5" s="14">
-        <v>8.9377821309523817</v>
-      </c>
-      <c r="AK5" s="14">
-        <v>9.4961094107142863</v>
-      </c>
-      <c r="AL5" s="14">
-        <v>9.5524466964285732</v>
-      </c>
-      <c r="AM5" s="14">
-        <v>9.0938652678571437</v>
-      </c>
-      <c r="AN5" s="14">
-        <v>10.00374742857144</v>
-      </c>
-      <c r="AO5" s="14">
-        <v>8.3675158630952389</v>
-      </c>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="14">
-        <v>9.5694240773809529</v>
-      </c>
-      <c r="AR5" s="14">
-        <v>8.3923471726190488</v>
-      </c>
-      <c r="AS5" s="14">
-        <v>9.2914157619047621</v>
-      </c>
-      <c r="AT5" s="14">
-        <v>8.3879609821428591</v>
-      </c>
-      <c r="AU5" s="14">
-        <v>8.41241548809524</v>
-      </c>
-      <c r="AV5" s="14"/>
-    </row>
-    <row r="6" spans="1:48" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B5" s="18">
         <v>42789</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C5" s="19">
         <v>10.7</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D5" s="19">
         <v>9.65</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E5" s="19">
         <v>8.25</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F5" s="19">
         <v>206.958333333333</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G5" s="19">
         <v>263.291666666666</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H5" s="19">
         <v>281.166666666666</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I5" s="19">
         <v>268</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19">
+      <c r="J5" s="19"/>
+      <c r="K5" s="19">
         <v>41</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19">
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19">
         <v>58.4583333333333</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q5" s="19">
         <v>60.273972602739697</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R5" s="19">
         <v>121.416666666666</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S5" s="19">
         <v>17.7083333333333</v>
       </c>
-      <c r="T6" s="19">
-        <v>0</v>
-      </c>
-      <c r="U6" s="19">
+      <c r="T5" s="19">
+        <v>0</v>
+      </c>
+      <c r="U5" s="19">
         <v>35.854575846218097</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V5" s="19">
         <v>27.3</v>
       </c>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>42793</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10.93</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9.64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="F6" s="2">
+        <v>205.958333333333</v>
+      </c>
+      <c r="G6" s="2">
+        <v>206.041666666666</v>
+      </c>
+      <c r="H6" s="2">
+        <v>292.875</v>
+      </c>
+      <c r="I6" s="2">
+        <v>269</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>41</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2">
+        <v>57.25</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>46.319663512092497</v>
+      </c>
+      <c r="R6" s="2">
+        <v>116.5</v>
+      </c>
+      <c r="S6" s="2">
+        <v>17.7083333333333</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>37.224880382775098</v>
+      </c>
+      <c r="V6" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="AV6" s="2"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>5</v>
+      <c r="A7" s="1">
+        <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>42793</v>
+        <v>42843</v>
       </c>
       <c r="C7" s="2">
-        <v>10.93</v>
+        <v>10.4</v>
       </c>
       <c r="D7" s="2">
-        <v>9.64</v>
+        <v>9.65</v>
       </c>
       <c r="E7" s="2">
-        <v>7.96</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F7" s="2">
-        <v>205.958333333333</v>
+        <v>209.916666666666</v>
       </c>
       <c r="G7" s="2">
-        <v>206.041666666666</v>
+        <v>234.416666666666</v>
       </c>
       <c r="H7" s="2">
-        <v>292.875</v>
-      </c>
-      <c r="I7" s="2">
-        <v>269</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2">
-        <v>41</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+        <v>279.25</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2">
+        <v>38</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2">
-        <v>57.25</v>
+        <v>57.7083333333333</v>
       </c>
       <c r="Q7" s="2">
-        <v>46.319663512092497</v>
+        <v>42.875</v>
       </c>
       <c r="R7" s="2">
-        <v>116.5</v>
+        <v>111.68774531181801</v>
       </c>
       <c r="S7" s="2">
-        <v>17.7083333333333</v>
+        <v>17.559009786989002</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
       </c>
       <c r="U7" s="2">
-        <v>37.224880382775098</v>
+        <v>31.625</v>
       </c>
       <c r="V7" s="2">
-        <v>27.1</v>
-      </c>
+        <v>26.8175582990397</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>42843</v>
+        <v>43122</v>
       </c>
       <c r="C8" s="2">
-        <v>10.4</v>
+        <v>11.45</v>
       </c>
       <c r="D8" s="2">
-        <v>9.65</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="E8" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="F8" s="2">
-        <v>209.916666666666</v>
+        <v>224.791666666666</v>
       </c>
       <c r="G8" s="2">
-        <v>234.416666666666</v>
+        <v>219.708333333333</v>
       </c>
       <c r="H8" s="2">
-        <v>279.25</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>470.791666666666</v>
+      </c>
+      <c r="I8" s="2">
+        <v>245</v>
+      </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>30</v>
+      </c>
       <c r="L8" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
-        <v>57.7083333333333</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>42.875</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
-        <v>111.68774531181801</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>17.559009786989002</v>
+        <v>17.027600849256899</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
       </c>
       <c r="U8" s="2">
-        <v>31.625</v>
+        <v>47.5</v>
       </c>
       <c r="V8" s="2">
-        <v>26.8175582990397</v>
+        <v>27.016645326504399</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1516,13 +1553,13 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>43122</v>
+        <v>43130</v>
       </c>
       <c r="C9" s="2">
-        <v>11.45</v>
+        <v>10.9</v>
       </c>
       <c r="D9" s="2">
         <v>9.2100000000000009</v>
@@ -1531,33 +1568,33 @@
         <v>9.4</v>
       </c>
       <c r="F9" s="2">
-        <v>224.791666666666</v>
+        <v>244.833333333333</v>
       </c>
       <c r="G9" s="2">
         <v>219.708333333333</v>
       </c>
       <c r="H9" s="2">
-        <v>470.791666666666</v>
+        <v>470.916666666666</v>
       </c>
       <c r="I9" s="2">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M9" s="2">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -1566,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="S9" s="2">
-        <v>17.027600849256899</v>
+        <v>17</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
       </c>
       <c r="U9" s="2">
-        <v>47.5</v>
+        <v>49.9583333333333</v>
       </c>
       <c r="V9" s="2">
-        <v>27.016645326504399</v>
+        <v>26.2</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -1606,48 +1643,46 @@
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>43130</v>
+        <v>43138</v>
       </c>
       <c r="C10" s="2">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D10" s="2">
-        <v>9.2100000000000009</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E10" s="2">
         <v>9.4</v>
       </c>
       <c r="F10" s="2">
-        <v>244.833333333333</v>
+        <v>205.375</v>
       </c>
       <c r="G10" s="2">
-        <v>219.708333333333</v>
+        <v>277.94943820224699</v>
       </c>
       <c r="H10" s="2">
-        <v>470.916666666666</v>
+        <v>517.91666666666595</v>
       </c>
       <c r="I10" s="2">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2">
-        <v>6</v>
-      </c>
-      <c r="M10" s="2">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -1656,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>17</v>
+        <v>17.0833333333333</v>
       </c>
       <c r="T10" s="2">
         <v>0</v>
@@ -1665,7 +1700,7 @@
         <v>49.9583333333333</v>
       </c>
       <c r="V10" s="2">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -1696,40 +1731,40 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>43138</v>
+        <v>43208</v>
       </c>
       <c r="C11" s="2">
-        <v>10.8</v>
+        <v>10.77</v>
       </c>
       <c r="D11" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="E11" s="2">
-        <v>9.4</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F11" s="2">
-        <v>205.375</v>
+        <v>210</v>
       </c>
       <c r="G11" s="2">
-        <v>277.94943820224699</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>517.91666666666595</v>
+        <v>611</v>
       </c>
       <c r="I11" s="2">
-        <v>210</v>
+        <v>311</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1755,95 +1790,59 @@
       <c r="V11" s="2">
         <v>26.1</v>
       </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B12" s="5">
-        <v>43208</v>
+        <v>367</v>
       </c>
       <c r="C12" s="2">
-        <v>10.77</v>
+        <f>AVERAGE(C2:C11)</f>
+        <v>10.709999999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>9.6300000000000008</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2">
-        <v>9.0299999999999994</v>
+        <v>8.5</v>
       </c>
       <c r="F12" s="2">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>611</v>
-      </c>
-      <c r="I12" s="2">
-        <v>311</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>31</v>
-      </c>
-      <c r="L12" s="2">
-        <v>4</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>250</v>
+      </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <f t="shared" ref="P12:V12" si="0">AVERAGE(P2:P11)</f>
+        <v>36.67083333333332</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>25.171863611483211</v>
       </c>
       <c r="R12" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>61.260441197848294</v>
       </c>
       <c r="S12" s="2">
-        <v>17.0833333333333</v>
+        <f t="shared" si="0"/>
+        <v>15.625327730291241</v>
       </c>
       <c r="T12" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>49.9583333333333</v>
+        <f t="shared" si="0"/>
+        <v>42.749612289565974</v>
       </c>
       <c r="V12" s="2">
-        <v>26.1</v>
-      </c>
-      <c r="AV12" s="2"/>
+        <f t="shared" si="0"/>
+        <v>29.39966520580079</v>
+      </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D13" s="2"/>
@@ -1852,38 +1851,41 @@
     <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D14" s="2"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D26" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D12">
+  <conditionalFormatting sqref="D2:D11">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1895,7 +1897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E12">
+  <conditionalFormatting sqref="E2:E11">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1907,7 +1909,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I12">
+  <conditionalFormatting sqref="I2:I11">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1919,7 +1921,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F12">
+  <conditionalFormatting sqref="F2:F11">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1931,7 +1933,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H12">
+  <conditionalFormatting sqref="H2:H11">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1943,7 +1945,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:O12">
+  <conditionalFormatting sqref="J2:O11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1955,7 +1957,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C12">
+  <conditionalFormatting sqref="C2:C11">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1967,7 +1969,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G12">
+  <conditionalFormatting sqref="G2:G11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/data/surveys.xlsx
+++ b/data/surveys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apryet/recherche/ptrack/case_study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4F8300-102D-CE4D-B233-AD62B5140939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DBA2BB-BF6F-3547-9379-B039793E95B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="500" windowWidth="20300" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Q_R20</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>∆H</t>
   </si>
 </sst>
 </file>
@@ -396,6 +402,1871 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CD7-FD4A-BFAE-F48E7140D878}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="587994048"/>
+        <c:axId val="587799200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="587994048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587799200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="587799200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587994048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.9699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.0499999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7400000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BAC-8A46-AA90-2356203F6A9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="632117568"/>
+        <c:axId val="632119216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="632117568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632119216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="632119216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632117568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E21751-8B24-73D1-3CEF-53E0B18E8EBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7F9B75-1383-435E-833D-BFD76D990E21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,10 +2554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV26"/>
+  <dimension ref="A1:AW26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -699,27 +2570,27 @@
     <col min="7" max="7" width="6.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="14.5" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" customWidth="1"/>
-    <col min="20" max="20" width="8.1640625" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" customWidth="1"/>
-    <col min="23" max="38" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="16" width="9.1640625" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" customWidth="1"/>
+    <col min="21" max="21" width="8.1640625" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" customWidth="1"/>
+    <col min="24" max="39" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -751,118 +2622,121 @@
         <v>7</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AP1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AR1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AS1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AT1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AU1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AV1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -891,90 +2765,94 @@
         <v>373</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
+      <c r="K2" s="2">
+        <f>E2-C2</f>
+        <v>-1.9499999999999993</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>27</v>
       </c>
-      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
+      <c r="P2" s="2"/>
       <c r="Q2" s="2">
         <v>0</v>
       </c>
       <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
         <v>134.083333333333</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
         <v>17.3333333333333</v>
       </c>
-      <c r="T2" s="2">
+      <c r="U2" s="2">
         <v>0</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2" s="3">
         <v>47.125</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W2" s="3">
         <v>38.003502626970203</v>
       </c>
-      <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2">
         <v>9.6525479050336607</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="AA2" s="2">
         <v>9.7345191906120672</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AB2" s="2">
         <v>10.196226190476169</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AC2" s="2">
         <v>10.00611607142856</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AD2" s="2">
         <v>9.6121523809523808</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AE2" s="2">
         <v>9.8990526669384202</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AF2" s="2">
         <v>10.26083242884317</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AG2" s="2">
         <v>9.1273125000000022</v>
       </c>
-      <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
-      <c r="AM2" s="2">
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2">
         <v>9.4753547619047627</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AO2" s="2">
         <v>10.005243452380959</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AP2" s="2">
         <v>8.3103017857142838</v>
       </c>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="2">
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="2">
         <v>9.7050535714285733</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AS2" s="2">
         <v>9.3962125000000007</v>
       </c>
-      <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
     </row>
-    <row r="3" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1003,25 +2881,26 @@
         <v>208</v>
       </c>
       <c r="J3" s="23"/>
-      <c r="K3" s="23">
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K11" si="0">E3-C3</f>
+        <v>-2.1999999999999993</v>
+      </c>
+      <c r="L3" s="23">
         <v>64</v>
       </c>
-      <c r="L3" s="23">
+      <c r="M3" s="23">
         <v>7</v>
       </c>
-      <c r="M3" s="23">
+      <c r="N3" s="23">
         <v>24</v>
       </c>
-      <c r="N3" s="23"/>
       <c r="O3" s="23"/>
-      <c r="P3" s="23">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23">
         <v>67.0833333333333</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="R3" s="23">
         <v>61.9583333333333</v>
-      </c>
-      <c r="R3" s="23">
-        <v>0</v>
       </c>
       <c r="S3" s="23">
         <v>0</v>
@@ -1029,76 +2908,79 @@
       <c r="T3" s="23">
         <v>0</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3" s="23">
+        <v>0</v>
+      </c>
+      <c r="V3" s="25">
         <v>42.6666666666666</v>
       </c>
-      <c r="V3" s="25">
+      <c r="W3" s="25">
         <v>36.525612472160297</v>
       </c>
-      <c r="W3" s="23"/>
       <c r="X3" s="23"/>
-      <c r="Y3" s="23">
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23">
         <v>9.6360678571428569</v>
       </c>
-      <c r="Z3" s="23">
+      <c r="AA3" s="23">
         <v>9.8018660714285719</v>
       </c>
-      <c r="AA3" s="23">
+      <c r="AB3" s="23">
         <v>10.5855869047619</v>
       </c>
-      <c r="AB3" s="23">
+      <c r="AC3" s="23">
         <v>10.33018214285714</v>
       </c>
-      <c r="AC3" s="23">
+      <c r="AD3" s="23">
         <v>9.6485982142857143</v>
       </c>
-      <c r="AD3" s="23">
+      <c r="AE3" s="23">
         <v>9.9715982142857165</v>
       </c>
-      <c r="AE3" s="23">
+      <c r="AF3" s="23">
         <v>10.92704702380953</v>
       </c>
-      <c r="AF3" s="23">
+      <c r="AG3" s="23">
         <v>9.093102380952379</v>
       </c>
-      <c r="AG3" s="23">
+      <c r="AH3" s="23">
         <v>8.6855297619047622</v>
       </c>
-      <c r="AH3" s="23">
+      <c r="AI3" s="23">
         <v>8.9416458333333324</v>
       </c>
-      <c r="AI3" s="23">
+      <c r="AJ3" s="23">
         <v>9.2385910714285728</v>
       </c>
-      <c r="AJ3" s="23">
+      <c r="AK3" s="23">
         <v>9.1267017857142854</v>
       </c>
-      <c r="AK3" s="23">
+      <c r="AL3" s="23">
         <v>9.5699690476190504</v>
       </c>
-      <c r="AL3" s="23">
+      <c r="AM3" s="23">
         <v>9.637910714285713</v>
       </c>
-      <c r="AM3" s="23">
+      <c r="AN3" s="23">
         <v>9.2019785714285707</v>
       </c>
-      <c r="AN3" s="23">
+      <c r="AO3" s="23">
         <v>10.141202380952381</v>
       </c>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="23">
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="23">
         <v>9.9792398809523792</v>
       </c>
-      <c r="AR3" s="23">
+      <c r="AS3" s="23">
         <v>8.6275785714285718</v>
       </c>
-      <c r="AS3" s="23"/>
       <c r="AT3" s="23"/>
       <c r="AU3" s="23"/>
       <c r="AV3" s="23"/>
+      <c r="AW3" s="23"/>
     </row>
-    <row r="4" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1127,112 +3009,116 @@
         <v>382</v>
       </c>
       <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14">
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.9000000000000004</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14">
         <v>11</v>
       </c>
-      <c r="M4" s="14">
+      <c r="N4" s="14">
         <v>31</v>
       </c>
-      <c r="N4" s="14"/>
       <c r="O4" s="14"/>
-      <c r="P4" s="14">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14">
         <v>61.2083333333333</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="R4" s="14">
         <v>40.2916666666666</v>
       </c>
-      <c r="R4" s="14">
+      <c r="S4" s="14">
         <v>128.916666666666</v>
       </c>
-      <c r="S4" s="14">
+      <c r="T4" s="14">
         <v>17.75</v>
       </c>
-      <c r="T4" s="14">
+      <c r="U4" s="14">
         <v>0</v>
       </c>
-      <c r="U4" s="16">
+      <c r="V4" s="16">
         <v>35.625</v>
       </c>
-      <c r="V4" s="16">
+      <c r="W4" s="16">
         <v>32.8333333333333</v>
       </c>
-      <c r="W4" s="14">
+      <c r="X4" s="14">
         <v>9.3598885238095253</v>
       </c>
-      <c r="X4" s="14">
+      <c r="Y4" s="14">
         <v>9.9018292023809522</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Z4" s="14">
         <v>9.608518982142856</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="AA4" s="14">
         <v>9.683357035714284</v>
       </c>
-      <c r="AA4" s="14">
+      <c r="AB4" s="14">
         <v>10.058672625</v>
       </c>
-      <c r="AB4" s="14">
+      <c r="AC4" s="14">
         <v>9.7340520297619015</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AD4" s="14">
         <v>9.5986493869047642</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AE4" s="14">
         <v>9.8011417083333345</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AF4" s="14">
         <v>9.8862252261904757</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AG4" s="14">
         <v>8.874929767857143</v>
       </c>
-      <c r="AG4" s="14">
+      <c r="AH4" s="14">
         <v>8.6629561904761889</v>
       </c>
-      <c r="AH4" s="14">
+      <c r="AI4" s="14">
         <v>8.8768794761904779</v>
       </c>
-      <c r="AI4" s="14">
+      <c r="AJ4" s="14">
         <v>8.9760425773809516</v>
       </c>
-      <c r="AJ4" s="14">
+      <c r="AK4" s="14">
         <v>8.9377821309523817</v>
       </c>
-      <c r="AK4" s="14">
+      <c r="AL4" s="14">
         <v>9.4961094107142863</v>
       </c>
-      <c r="AL4" s="14">
+      <c r="AM4" s="14">
         <v>9.5524466964285732</v>
       </c>
-      <c r="AM4" s="14">
+      <c r="AN4" s="14">
         <v>9.0938652678571437</v>
       </c>
-      <c r="AN4" s="14">
+      <c r="AO4" s="14">
         <v>10.00374742857144</v>
       </c>
-      <c r="AO4" s="14">
+      <c r="AP4" s="14">
         <v>8.3675158630952389</v>
       </c>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="14">
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="14">
         <v>9.5694240773809529</v>
       </c>
-      <c r="AR4" s="14">
+      <c r="AS4" s="14">
         <v>8.3923471726190488</v>
       </c>
-      <c r="AS4" s="14">
+      <c r="AT4" s="14">
         <v>9.2914157619047621</v>
       </c>
-      <c r="AT4" s="14">
+      <c r="AU4" s="14">
         <v>8.3879609821428591</v>
       </c>
-      <c r="AU4" s="14">
+      <c r="AV4" s="14">
         <v>8.41241548809524</v>
       </c>
-      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
     </row>
-    <row r="5" spans="1:48" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1261,35 +3147,38 @@
         <v>268</v>
       </c>
       <c r="J5" s="19"/>
-      <c r="K5" s="19">
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.4499999999999993</v>
+      </c>
+      <c r="L5" s="19">
         <v>41</v>
       </c>
-      <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
-      <c r="P5" s="19">
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19">
         <v>58.4583333333333</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="R5" s="19">
         <v>60.273972602739697</v>
       </c>
-      <c r="R5" s="19">
+      <c r="S5" s="19">
         <v>121.416666666666</v>
       </c>
-      <c r="S5" s="19">
+      <c r="T5" s="19">
         <v>17.7083333333333</v>
       </c>
-      <c r="T5" s="19">
+      <c r="U5" s="19">
         <v>0</v>
       </c>
-      <c r="U5" s="19">
+      <c r="V5" s="19">
         <v>35.854575846218097</v>
       </c>
-      <c r="V5" s="19">
+      <c r="W5" s="19">
         <v>27.3</v>
       </c>
-      <c r="W5" s="19"/>
       <c r="X5" s="19"/>
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
@@ -1315,8 +3204,9 @@
       <c r="AT5" s="19"/>
       <c r="AU5" s="19"/>
       <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1346,36 +3236,40 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.9699999999999998</v>
+      </c>
+      <c r="L6" s="2">
         <v>41</v>
       </c>
-      <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2">
         <v>57.25</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>46.319663512092497</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="2">
         <v>116.5</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>17.7083333333333</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="2">
         <v>0</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <v>37.224880382775098</v>
       </c>
-      <c r="V6" s="2">
+      <c r="W6" s="2">
         <v>27.1</v>
       </c>
-      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1404,37 +3298,40 @@
       <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2">
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.2000000000000011</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
         <v>8</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>38</v>
       </c>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2">
         <v>57.7083333333333</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42.875</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>111.68774531181801</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>17.559009786989002</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>0</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>31.625</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>26.8175582990397</v>
       </c>
-      <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
@@ -1460,8 +3357,9 @@
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1493,19 +3391,20 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>-2.0499999999999989</v>
       </c>
       <c r="L8" s="2">
         <v>30</v>
       </c>
       <c r="M8" s="2">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2">
         <v>77</v>
       </c>
-      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2">
         <v>0</v>
       </c>
@@ -1513,18 +3412,20 @@
         <v>0</v>
       </c>
       <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
         <v>17.027600849256899</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <v>0</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <v>47.5</v>
       </c>
-      <c r="V8" s="2">
+      <c r="W8" s="2">
         <v>27.016645326504399</v>
       </c>
-      <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
@@ -1550,8 +3451,9 @@
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1583,38 +3485,41 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="L9" s="2">
         <v>28</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>6</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>13</v>
       </c>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2">
         <v>65</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
       </c>
       <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
         <v>17</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <v>0</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <v>49.9583333333333</v>
       </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
         <v>26.2</v>
       </c>
-      <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
@@ -1640,8 +3545,9 @@
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1673,17 +3579,18 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.4000000000000004</v>
+      </c>
+      <c r="L10" s="2">
         <v>24</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2">
         <v>0</v>
       </c>
@@ -1691,18 +3598,20 @@
         <v>0</v>
       </c>
       <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
         <v>17.0833333333333</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <v>0</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <v>49.9583333333333</v>
       </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
         <v>26.1</v>
       </c>
-      <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
@@ -1728,8 +3637,9 @@
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1761,17 +3671,18 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.7400000000000002</v>
+      </c>
+      <c r="L11" s="2">
         <v>31</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>4</v>
       </c>
-      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
@@ -1779,20 +3690,23 @@
         <v>0</v>
       </c>
       <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
         <v>17.0833333333333</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <v>0</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <v>49.9583333333333</v>
       </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
         <v>26.1</v>
       </c>
-      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>99</v>
       </c>
@@ -1815,40 +3729,43 @@
       <c r="G12" s="2">
         <v>250</v>
       </c>
-      <c r="P12" s="2">
-        <f t="shared" ref="P12:V12" si="0">AVERAGE(P2:P11)</f>
+      <c r="Q12" s="2">
+        <f t="shared" ref="Q12:W12" si="1">AVERAGE(Q2:Q11)</f>
         <v>36.67083333333332</v>
       </c>
-      <c r="Q12" s="2">
-        <f t="shared" si="0"/>
+      <c r="R12" s="2">
+        <f t="shared" si="1"/>
         <v>25.171863611483211</v>
       </c>
-      <c r="R12" s="2">
-        <f t="shared" si="0"/>
+      <c r="S12" s="2">
+        <f t="shared" si="1"/>
         <v>61.260441197848294</v>
       </c>
-      <c r="S12" s="2">
-        <f t="shared" si="0"/>
+      <c r="T12" s="2">
+        <f t="shared" si="1"/>
         <v>15.625327730291241</v>
       </c>
-      <c r="T12" s="2">
-        <f t="shared" si="0"/>
+      <c r="U12" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U12" s="2">
-        <f t="shared" si="0"/>
+      <c r="V12" s="2">
+        <f t="shared" si="1"/>
         <v>42.749612289565974</v>
       </c>
-      <c r="V12" s="2">
-        <f t="shared" si="0"/>
+      <c r="W12" s="2">
+        <f t="shared" si="1"/>
         <v>29.39966520580079</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="D14" s="2"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
@@ -1945,7 +3862,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:O11">
+  <conditionalFormatting sqref="J2:P11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1982,5 +3899,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/surveys.xlsx
+++ b/data/surveys.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apryet/recherche/ptrack/case_study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DBA2BB-BF6F-3547-9379-B039793E95B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BB40D7-AB16-6345-AF24-DD2FC1482F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2557,7 +2557,7 @@
   <dimension ref="A1:AW26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3714,20 +3714,19 @@
         <v>367</v>
       </c>
       <c r="C12" s="2">
-        <f>AVERAGE(C2:C11)</f>
-        <v>10.709999999999999</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ref="Q12:W12" si="1">AVERAGE(Q2:Q11)</f>

--- a/data/surveys.xlsx
+++ b/data/surveys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apryet/recherche/ptrack/case_study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BB40D7-AB16-6345-AF24-DD2FC1482F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5C5DB9-0850-AD4A-9EAB-2A614ECE4853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4760" yWindow="2320" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Q_R20</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>GLOB_Q</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -402,1871 +399,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.96</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0299999999999994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$2:$L$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5CD7-FD4A-BFAE-F48E7140D878}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="587994048"/>
-        <c:axId val="587799200"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="587994048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="587799200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="587799200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="587994048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$2:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-1.9499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.9699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.0499999999999989</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.7400000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$2:$L$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4BAC-8A46-AA90-2356203F6A9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="632117568"/>
-        <c:axId val="632119216"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="632117568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="632119216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="632119216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="632117568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E21751-8B24-73D1-3CEF-53E0B18E8EBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7F9B75-1383-435E-833D-BFD76D990E21}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2557,7 +689,7 @@
   <dimension ref="A1:AW26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2622,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -3714,7 +1846,8 @@
         <v>367</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <f>AVERAGE(C2:C11)</f>
+        <v>10.709999999999999</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -3759,7 +1892,7 @@
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3767,37 +1900,34 @@
     <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="D14" s="2"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="2"/>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" s="2"/>
     </row>
   </sheetData>
@@ -3898,6 +2028,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/surveys.xlsx
+++ b/data/surveys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apryet/recherche/ptrack/case_study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5C5DB9-0850-AD4A-9EAB-2A614ECE4853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8379B37-D390-AA4C-A46B-4297A744D8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="2320" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:AW26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1010,7 +1010,7 @@
         <v>573</v>
       </c>
       <c r="I3" s="24">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="2">

--- a/data/surveys.xlsx
+++ b/data/surveys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apryet/recherche/ptrack/case_study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8379B37-D390-AA4C-A46B-4297A744D8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422D38D6-CC1D-EF4A-A251-5E262AEAAE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
   <dimension ref="A1:AW26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1846,8 +1846,7 @@
         <v>367</v>
       </c>
       <c r="C12" s="2">
-        <f>AVERAGE(C2:C11)</f>
-        <v>10.709999999999999</v>
+        <v>11.45</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
